--- a/data/trans_dic/P37-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P37-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1058588661064865</v>
+        <v>0.1108126186137444</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1271496483434356</v>
+        <v>0.1289310972175645</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1055947982050098</v>
+        <v>0.1106002296027235</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2315045553319258</v>
+        <v>0.2340116049911251</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08127972890953605</v>
+        <v>0.08098921838650204</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1231275522811708</v>
+        <v>0.1225306668968469</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1197655845160793</v>
+        <v>0.120858429796329</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2948498570158558</v>
+        <v>0.2960499121014732</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1088709450022739</v>
+        <v>0.1103048644719972</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1325271413898405</v>
+        <v>0.1389159078420501</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1255909398846385</v>
+        <v>0.1275185971253139</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2807036143244834</v>
+        <v>0.2752199712181937</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1897278327943466</v>
+        <v>0.1926731398802955</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2182795119584394</v>
+        <v>0.2152588778913091</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1892683726065609</v>
+        <v>0.1951217013572406</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3337485823073249</v>
+        <v>0.3317250013034126</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1641007661817572</v>
+        <v>0.1634066259896678</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.214680979468915</v>
+        <v>0.2125283869412378</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2105297995733932</v>
+        <v>0.2101332403759083</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3785246204770297</v>
+        <v>0.3782946332543389</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1694931867738949</v>
+        <v>0.1670431986817635</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1991674136858257</v>
+        <v>0.2031404465104323</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1855904308356494</v>
+        <v>0.1857540562129224</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3424643607675131</v>
+        <v>0.3411252613490189</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08072049323268894</v>
+        <v>0.0765062490357406</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1436476659913759</v>
+        <v>0.142428143150161</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1255252265995686</v>
+        <v>0.128205203440871</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2311843897950409</v>
+        <v>0.2350114520489648</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09549774713161091</v>
+        <v>0.09661980000072561</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1392793145312493</v>
+        <v>0.1421306976000596</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1029943071386294</v>
+        <v>0.1053881004018962</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2762816044453863</v>
+        <v>0.2747263485302455</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.094771762228181</v>
+        <v>0.09237850662611198</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1509575958450511</v>
+        <v>0.1536442089906029</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1241289399523642</v>
+        <v>0.1247371998631298</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2627798472028629</v>
+        <v>0.264750494217699</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1352914208680991</v>
+        <v>0.1334444514186988</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2166134791962293</v>
+        <v>0.2143055440335539</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1938619899794271</v>
+        <v>0.1935420050290263</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3184371353919225</v>
+        <v>0.3281687846211627</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1551705493883559</v>
+        <v>0.1585640455441365</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2088777847187697</v>
+        <v>0.210576451450274</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1637035483534584</v>
+        <v>0.1686179684014379</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3437988515205636</v>
+        <v>0.3432273815101101</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.136347787756539</v>
+        <v>0.1343028983363253</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2001099744735328</v>
+        <v>0.2050534583968711</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1692183563918253</v>
+        <v>0.1704581723844376</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3188012277702589</v>
+        <v>0.3203420549896382</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1162026064506994</v>
+        <v>0.1151535900981169</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1629747567976918</v>
+        <v>0.1617213672781607</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1489623414020765</v>
+        <v>0.1506857551839298</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.229638438626272</v>
+        <v>0.2309757466587285</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1467854105060672</v>
+        <v>0.1514714630639624</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1478502478514037</v>
+        <v>0.1479898996214642</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1718908200977355</v>
+        <v>0.171568841934519</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.278613978497797</v>
+        <v>0.2741481348823549</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1441911308995325</v>
+        <v>0.1450517722962437</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1677102045655637</v>
+        <v>0.1677496157199064</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1714634411259038</v>
+        <v>0.1707294691311795</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2640853113976591</v>
+        <v>0.2632597641289501</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1933021157937066</v>
+        <v>0.1959383869677997</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2535057871481156</v>
+        <v>0.2557004611492663</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2350202200242496</v>
+        <v>0.2338927306688705</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3143559563276915</v>
+        <v>0.3145583204422306</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2366445714116607</v>
+        <v>0.2416811905411091</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2343083276749557</v>
+        <v>0.2302235258805927</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2670866132727526</v>
+        <v>0.2625905865669081</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3546951089304074</v>
+        <v>0.3540872748543651</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2005452492601285</v>
+        <v>0.2026507348310991</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2314322341779272</v>
+        <v>0.2308639368890962</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2373573428280621</v>
+        <v>0.2321841002818945</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.32442832593218</v>
+        <v>0.3209446735417397</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08857413574635914</v>
+        <v>0.09161751064410122</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1375119152105962</v>
+        <v>0.1407069179374092</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1530109779401701</v>
+        <v>0.1583523727851654</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2416337063132364</v>
+        <v>0.2407864934464942</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1323249665369955</v>
+        <v>0.1323768441080467</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1915524091828809</v>
+        <v>0.1974266190375192</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1643914971498525</v>
+        <v>0.1700702119880286</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3072728039512587</v>
+        <v>0.3099712726409378</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.120788873036949</v>
+        <v>0.1213415918188035</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1782303756078659</v>
+        <v>0.1781523409478107</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1720346061165438</v>
+        <v>0.1742874711617081</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2898417104870558</v>
+        <v>0.2899172660202714</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1545587769964807</v>
+        <v>0.1602375722307407</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2234266201746543</v>
+        <v>0.2254098249030122</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2354830239376483</v>
+        <v>0.2373890854461711</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3448529086387138</v>
+        <v>0.3456121388187397</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2080684813340275</v>
+        <v>0.20845034250041</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2798717240945474</v>
+        <v>0.2825576969252057</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2544124433830813</v>
+        <v>0.2583781756639222</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3895710101418045</v>
+        <v>0.3921443332680062</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.169556990316832</v>
+        <v>0.1707567641319488</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2379708891408056</v>
+        <v>0.2385307784415578</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.23546720798574</v>
+        <v>0.230718942503748</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3579107102936824</v>
+        <v>0.3608576921840888</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.1351461440180544</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3362032370618405</v>
+        <v>0.3362032370618406</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1089522419454535</v>
+        <v>0.1099660236810772</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.117989954815623</v>
+        <v>0.1205691936748622</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09018509280950687</v>
+        <v>0.09130677752477546</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2400205033119548</v>
+        <v>0.243622990767466</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1465263511585218</v>
+        <v>0.1446378868244884</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1432645293960391</v>
+        <v>0.142691071626155</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09192798191141202</v>
+        <v>0.09478497128013806</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3336212234290267</v>
+        <v>0.3299238900914918</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1433972422957536</v>
+        <v>0.1438971425455059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1440592251741263</v>
+        <v>0.1443312247409657</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.105551536272265</v>
+        <v>0.1052725295806239</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3036241581236255</v>
+        <v>0.302443264105632</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2107146516977982</v>
+        <v>0.2113350678745985</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2332226934868188</v>
+        <v>0.2298121627863737</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1794853703638133</v>
+        <v>0.181834160436953</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3410464409147638</v>
+        <v>0.3482687508868061</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.263851100070204</v>
+        <v>0.258265694063655</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2544867316959723</v>
+        <v>0.2539683735458522</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1901282026047887</v>
+        <v>0.1954804264860722</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.422108925369359</v>
+        <v>0.4196715830624504</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2170327937688851</v>
+        <v>0.2156678280655795</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2189444722110911</v>
+        <v>0.221821382385207</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1728211480415134</v>
+        <v>0.1702068253510766</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3720845546072797</v>
+        <v>0.3741689322272318</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.233791437817216</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3707333441238312</v>
+        <v>0.3707333441238311</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1536445043194629</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09562790829512018</v>
+        <v>0.09410480816061034</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1645149171087122</v>
+        <v>0.1689568532006419</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1527772853486878</v>
+        <v>0.1510024892866424</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2250764612907073</v>
+        <v>0.2244119717467243</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1344598787033594</v>
+        <v>0.131887940862683</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1770162848127264</v>
+        <v>0.179815729039999</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1874582555332462</v>
+        <v>0.1844396946021952</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3254380188560057</v>
+        <v>0.3307231525030023</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1243117644759487</v>
+        <v>0.1248185835975261</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1871135851803461</v>
+        <v>0.1855468968262036</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1810547904930733</v>
+        <v>0.1805935195787045</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2866786387445897</v>
+        <v>0.2854035086107485</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.173195610270512</v>
+        <v>0.1736277386634253</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2610136333007098</v>
+        <v>0.2684040959501461</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2466933976941824</v>
+        <v>0.2452311393234573</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3101387486087761</v>
+        <v>0.3114581164131106</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.224954586038653</v>
+        <v>0.2271491097812033</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2824418363204181</v>
+        <v>0.2801826436454555</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2921695056404821</v>
+        <v>0.288815451886034</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4155247104958433</v>
+        <v>0.417239168790589</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1853252074853091</v>
+        <v>0.1844413424649797</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2550039980211308</v>
+        <v>0.2540935373884403</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.250003516737956</v>
+        <v>0.2493925333770788</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3502390862441432</v>
+        <v>0.3472344313487079</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.1931754699042149</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3641078314383455</v>
+        <v>0.3641078314383454</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1614420395779049</v>
@@ -1513,7 +1513,7 @@
         <v>0.1796580651011364</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3463898290111069</v>
+        <v>0.346389829011107</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1241349674834899</v>
+        <v>0.1217183562795609</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1425503840042435</v>
+        <v>0.144356631810261</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1371883318844073</v>
+        <v>0.1375481032729721</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2917771947663141</v>
+        <v>0.2916941024632739</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1431313170212005</v>
+        <v>0.1411960104306649</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1399420066455308</v>
+        <v>0.138206945888476</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1635121298166522</v>
+        <v>0.1647642463015167</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3319388623587977</v>
+        <v>0.3343097074905599</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1418786555223292</v>
+        <v>0.1410690286988406</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.148246616058089</v>
+        <v>0.149230234516802</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1573648541153067</v>
+        <v>0.157579424345147</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3220075142529619</v>
+        <v>0.3192368547160263</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1802425957576529</v>
+        <v>0.1809525132279692</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2052364449607477</v>
+        <v>0.2060961868499591</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1979676866484447</v>
+        <v>0.1954810134593354</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.36580303436509</v>
+        <v>0.3671974758389295</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2049552476344546</v>
+        <v>0.2025998663319559</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1967830483633877</v>
+        <v>0.1974180234360976</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2270064641553986</v>
+        <v>0.2304703163154714</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3965387906622556</v>
+        <v>0.3997948522661572</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1812877880803719</v>
+        <v>0.1845030268689875</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1913822480808319</v>
+        <v>0.1919147841547857</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2011311401710503</v>
+        <v>0.2019674826324162</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3716857400391188</v>
+        <v>0.3717209383036388</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.1193608981115138</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.3706031276102028</v>
+        <v>0.3706031276102029</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.1489447569396047</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1271999206282919</v>
+        <v>0.1278754988696605</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1342315183802987</v>
+        <v>0.133799607224653</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0978177593810928</v>
+        <v>0.0974098872590947</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3381176573276111</v>
+        <v>0.3363561520498782</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1249247020669708</v>
+        <v>0.124725293723042</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1358914279652041</v>
+        <v>0.1375591203157453</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1134353262189117</v>
+        <v>0.1130747524001884</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3889935351510931</v>
+        <v>0.3868344747947204</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1335623208000994</v>
+        <v>0.1329256399268905</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1419678605983361</v>
+        <v>0.1406241386591634</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1115841168531824</v>
+        <v>0.1109007027209146</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3728479918128351</v>
+        <v>0.3704272068399275</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1779509267858424</v>
+        <v>0.1816981128718565</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1887137494367334</v>
+        <v>0.1865990382659647</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1426787972961132</v>
+        <v>0.1458371236392899</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4053261704067413</v>
+        <v>0.4053464046094737</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1769372331088082</v>
+        <v>0.1757383746078397</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1895344682607704</v>
+        <v>0.1901929543486318</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.16774519010223</v>
+        <v>0.1686005661974359</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.446372417443596</v>
+        <v>0.4467346579121711</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1704072418033536</v>
+        <v>0.1697178543221969</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1823482761406025</v>
+        <v>0.180615524670107</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1477155128936403</v>
+        <v>0.146963487953282</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.4188662686076466</v>
+        <v>0.4166953993167701</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.1729081448371995</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.3599366550332037</v>
+        <v>0.3599366550332035</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.1487998107173084</v>
@@ -1785,7 +1785,7 @@
         <v>0.1653330058630114</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.3352858010418433</v>
+        <v>0.3352858010418432</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1280754041279349</v>
+        <v>0.1268455631154454</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1638376777489812</v>
+        <v>0.162061517111001</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.146603495658466</v>
+        <v>0.1458655455479583</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2936202356636157</v>
+        <v>0.2926907407507263</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1467255896697603</v>
+        <v>0.146255739206859</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1689427255807379</v>
+        <v>0.168994430499523</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1591200981543988</v>
+        <v>0.1603733286697046</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3455571848324721</v>
+        <v>0.3467979395838051</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1398209032903083</v>
+        <v>0.1402316234895329</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1703957927077572</v>
+        <v>0.1706466298258435</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1557340551663196</v>
+        <v>0.1559390549684145</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.3254949496318338</v>
+        <v>0.325247387605506</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.150561539572192</v>
+        <v>0.1503478263911714</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1901750089915241</v>
+        <v>0.1919552390093179</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1702585967430945</v>
+        <v>0.1697210066435183</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.326502744985211</v>
+        <v>0.3238975471330842</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1723884966795035</v>
+        <v>0.1712582790597645</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1956517450342284</v>
+        <v>0.1964480818317585</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1861421914368506</v>
+        <v>0.1874192678264694</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3725533656038037</v>
+        <v>0.3747508455926532</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1579303435299776</v>
+        <v>0.1575253929321466</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1898345460167601</v>
+        <v>0.1889995870615094</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1741546503490619</v>
+        <v>0.1747458924051066</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.346787023965676</v>
+        <v>0.3452059779363593</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>28804</v>
+        <v>30152</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>37476</v>
+        <v>38001</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>31020</v>
+        <v>32490</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>73814</v>
+        <v>74613</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>21201</v>
+        <v>21125</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>35368</v>
+        <v>35196</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>34577</v>
+        <v>34892</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>93191</v>
+        <v>93570</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>58021</v>
+        <v>58785</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>77129</v>
+        <v>80847</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>73152</v>
+        <v>74275</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>178220</v>
+        <v>174739</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>51624</v>
+        <v>52426</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>64335</v>
+        <v>63445</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>55600</v>
+        <v>57319</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>106414</v>
+        <v>105769</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>42804</v>
+        <v>42623</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>61666</v>
+        <v>61048</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>60781</v>
+        <v>60666</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>119637</v>
+        <v>119564</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>90329</v>
+        <v>89023</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>115912</v>
+        <v>118224</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>108100</v>
+        <v>108195</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>217433</v>
+        <v>216582</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>39801</v>
+        <v>37723</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>72618</v>
+        <v>72001</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>63086</v>
+        <v>64433</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>122677</v>
+        <v>124708</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>48032</v>
+        <v>48597</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>72950</v>
+        <v>74443</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>53875</v>
+        <v>55127</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>150986</v>
+        <v>150136</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>94397</v>
+        <v>92013</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>155379</v>
+        <v>158145</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>127314</v>
+        <v>127938</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>283051</v>
+        <v>285174</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>66709</v>
+        <v>65798</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>109504</v>
+        <v>108337</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>97430</v>
+        <v>97269</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>168978</v>
+        <v>174142</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>78046</v>
+        <v>79753</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>109403</v>
+        <v>110293</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>85631</v>
+        <v>88201</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>187884</v>
+        <v>187572</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>135808</v>
+        <v>133771</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>205972</v>
+        <v>211060</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>173560</v>
+        <v>174832</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>343394</v>
+        <v>345054</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>37051</v>
+        <v>36716</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>52490</v>
+        <v>52086</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>47454</v>
+        <v>48003</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>72564</v>
+        <v>72987</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>49234</v>
+        <v>50805</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>50262</v>
+        <v>50309</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>57808</v>
+        <v>57700</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>99293</v>
+        <v>97701</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>94338</v>
+        <v>94901</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>111028</v>
+        <v>111054</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>112287</v>
+        <v>111806</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>177564</v>
+        <v>177009</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>61634</v>
+        <v>62474</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>81647</v>
+        <v>82354</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>74869</v>
+        <v>74510</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>99334</v>
+        <v>99398</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>79373</v>
+        <v>81063</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>79653</v>
+        <v>78264</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>89824</v>
+        <v>88312</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>126407</v>
+        <v>126190</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>131208</v>
+        <v>132586</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>153213</v>
+        <v>152837</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>155439</v>
+        <v>152051</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>218137</v>
+        <v>215795</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>31769</v>
+        <v>32861</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>51427</v>
+        <v>52622</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>56609</v>
+        <v>58585</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>90164</v>
+        <v>89848</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>49153</v>
+        <v>49172</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>74505</v>
+        <v>76789</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>63666</v>
+        <v>65865</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>129657</v>
+        <v>130796</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>88191</v>
+        <v>88595</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>135978</v>
+        <v>135918</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>130273</v>
+        <v>131979</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>230455</v>
+        <v>230515</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>55436</v>
+        <v>57473</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>83558</v>
+        <v>84299</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>87120</v>
+        <v>87825</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>128680</v>
+        <v>128963</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>77288</v>
+        <v>77430</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>108856</v>
+        <v>109901</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>98530</v>
+        <v>100065</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>164384</v>
+        <v>165470</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>123798</v>
+        <v>124674</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>181556</v>
+        <v>181983</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>178307</v>
+        <v>174711</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>284577</v>
+        <v>286920</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>22151</v>
+        <v>22357</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>24967</v>
+        <v>25513</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>19049</v>
+        <v>19286</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>49364</v>
+        <v>50105</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>30295</v>
+        <v>29904</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>31460</v>
+        <v>31334</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>20094</v>
+        <v>20719</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>75673</v>
+        <v>74834</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>58801</v>
+        <v>59006</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>62117</v>
+        <v>62235</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>45367</v>
+        <v>45247</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>131314</v>
+        <v>130803</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>42840</v>
+        <v>42966</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>49351</v>
+        <v>48629</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>37911</v>
+        <v>38407</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>70141</v>
+        <v>71627</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>54552</v>
+        <v>53397</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>55883</v>
+        <v>55769</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>41560</v>
+        <v>42729</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>95744</v>
+        <v>95191</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>88996</v>
+        <v>88437</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>94408</v>
+        <v>95648</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>74280</v>
+        <v>73156</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>160922</v>
+        <v>161824</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>25897</v>
+        <v>25485</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>45074</v>
+        <v>46291</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>40199</v>
+        <v>39732</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>60930</v>
+        <v>60750</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>37399</v>
+        <v>36684</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>49570</v>
+        <v>50354</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>51198</v>
+        <v>50373</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>85834</v>
+        <v>87228</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>68242</v>
+        <v>68520</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>103663</v>
+        <v>102795</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>97088</v>
+        <v>96841</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>153217</v>
+        <v>152536</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>46903</v>
+        <v>47020</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>71513</v>
+        <v>73538</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>64911</v>
+        <v>64526</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>83957</v>
+        <v>84314</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>62570</v>
+        <v>63180</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>79092</v>
+        <v>78460</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>79796</v>
+        <v>78880</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>109595</v>
+        <v>110047</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>101735</v>
+        <v>101250</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>141275</v>
+        <v>140771</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>134061</v>
+        <v>133734</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>187188</v>
+        <v>185582</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>76241</v>
+        <v>74757</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>94481</v>
+        <v>95678</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>90072</v>
+        <v>90308</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>209988</v>
+        <v>209928</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>91349</v>
+        <v>90114</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>97099</v>
+        <v>95895</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>113035</v>
+        <v>113901</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>256276</v>
+        <v>258106</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>177688</v>
+        <v>176674</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>201117</v>
+        <v>202452</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>212105</v>
+        <v>212394</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>480353</v>
+        <v>476220</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>110701</v>
+        <v>111137</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>136028</v>
+        <v>136598</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>129977</v>
+        <v>128345</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>263264</v>
+        <v>264267</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>130806</v>
+        <v>129303</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>136539</v>
+        <v>136979</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>156928</v>
+        <v>159323</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>306151</v>
+        <v>308664</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>227044</v>
+        <v>231071</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>259637</v>
+        <v>260359</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>271095</v>
+        <v>272222</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>554460</v>
+        <v>554512</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>94611</v>
+        <v>95113</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>104306</v>
+        <v>103971</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>76159</v>
+        <v>75842</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>269842</v>
+        <v>268436</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>97880</v>
+        <v>97724</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>111955</v>
+        <v>113328</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>93717</v>
+        <v>93419</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>323102</v>
+        <v>321308</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>203991</v>
+        <v>203018</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>227279</v>
+        <v>225127</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>179065</v>
+        <v>177968</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>607250</v>
+        <v>603308</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>132359</v>
+        <v>135146</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>146642</v>
+        <v>144999</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>111087</v>
+        <v>113546</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>323479</v>
+        <v>323496</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>138632</v>
+        <v>137693</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>156149</v>
+        <v>156691</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>138586</v>
+        <v>139292</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>370761</v>
+        <v>371062</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>260264</v>
+        <v>259211</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>291924</v>
+        <v>289150</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>237046</v>
+        <v>235840</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>682200</v>
+        <v>678664</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>419419</v>
+        <v>415391</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>560612</v>
+        <v>554535</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>497624</v>
+        <v>495119</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1037290</v>
+        <v>1034007</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>495536</v>
+        <v>493950</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>600969</v>
+        <v>601153</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>564008</v>
+        <v>568450</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1290358</v>
+        <v>1294991</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>930100</v>
+        <v>932832</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1189191</v>
+        <v>1190942</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1080622</v>
+        <v>1082044</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>2365339</v>
+        <v>2363540</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>493056</v>
+        <v>492356</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>650732</v>
+        <v>656824</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>577917</v>
+        <v>576092</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1153456</v>
+        <v>1144253</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>582208</v>
+        <v>578391</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>695980</v>
+        <v>698813</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>659789</v>
+        <v>664315</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1391165</v>
+        <v>1399371</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1050565</v>
+        <v>1047871</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1324854</v>
+        <v>1319027</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1208440</v>
+        <v>1212543</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>2520066</v>
+        <v>2508577</v>
       </c>
     </row>
     <row r="40">
